--- a/nasi_podatki/primoz/statistika_predmetov.xlsx
+++ b/nasi_podatki/primoz/statistika_predmetov.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neonpc\Desktop\pr\PR17_PPGAVB\nasi_podatki\primoz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="St. predmetov nasploh" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="St. predmetov nasploh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Predmet</t>
   </si>
@@ -385,20 +390,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -414,15 +418,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -710,20 +723,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,967 +742,967 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>463</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/nasi_podatki/primoz/statistika_predmetov.xlsx
+++ b/nasi_podatki/primoz/statistika_predmetov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neonpc\Desktop\pr\PR17_PPGAVB\nasi_podatki\primoz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\faks\PR\seminarska\OŠ data mining\PR17_PPGAVB\nasi_podatki\primoz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="St. predmetov nasploh" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'St. predmetov nasploh'!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -390,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,11 +729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -744,34 +749,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>201</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>414</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>497</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,543 +789,543 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>507</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>451</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>520</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B25">
-        <v>378</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B26">
-        <v>407</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>468</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>442</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>282</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>428</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B32">
-        <v>444</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>317</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>358</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>268</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>219</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>463</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>191</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>179</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B42">
-        <v>174</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>310</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B50">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>257</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B58">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B61">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B62">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B63">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B66">
-        <v>231</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
         <v>67</v>
-      </c>
-      <c r="B67">
-        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B68">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B69">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B70">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B71">
-        <v>114</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>175</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <v>57</v>
@@ -1328,50 +1333,50 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B77">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,50 +1389,50 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B83">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B84">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,15 +1445,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>24</v>
@@ -1456,127 +1461,127 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B97">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B101">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B103">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B104">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -1584,63 +1589,63 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B109">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -1648,10 +1653,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,10 +1677,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B118">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,6 +1708,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B121">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>